--- a/Team-Data/2007-08/2-13-2007-08.xlsx
+++ b/Team-Data/2007-08/2-13-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="H2" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.442</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.323</v>
+        <v>0.317</v>
       </c>
       <c r="O2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
         <v>12.5</v>
@@ -717,19 +784,19 @@
         <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>7.8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
         <v>21.3</v>
@@ -747,10 +814,10 @@
         <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -759,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -780,22 +847,22 @@
         <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
         <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.82</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J3" t="n">
         <v>75.40000000000001</v>
@@ -875,16 +942,16 @@
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q3" t="n">
         <v>0.771</v>
@@ -896,31 +963,31 @@
         <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
         <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>10.4</v>
@@ -956,19 +1023,19 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
@@ -980,13 +1047,13 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
         <v>25.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.703</v>
+        <v>0.701</v>
       </c>
       <c r="R4" t="n">
         <v>11.2</v>
@@ -1078,13 +1145,13 @@
         <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1093,40 +1160,40 @@
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
         <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
       </c>
       <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
         <v>23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1138,13 +1205,13 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP4" t="n">
         <v>15</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1156,10 +1223,10 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
@@ -1168,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1180,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1323,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1344,25 +1411,25 @@
         <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
         <v>4.8</v>
@@ -1463,13 +1530,13 @@
         <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
@@ -1487,31 +1554,31 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1520,16 +1587,16 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>16</v>
@@ -1541,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,10 +1661,10 @@
         <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>5.7</v>
@@ -1606,25 +1673,25 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P7" t="n">
         <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
         <v>20.2</v>
@@ -1633,7 +1700,7 @@
         <v>12.6</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
         <v>5</v>
@@ -1642,16 +1709,16 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1672,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -1684,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1702,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1714,13 +1781,13 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
         <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.627</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.454</v>
@@ -1794,70 +1861,70 @@
         <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="Q8" t="n">
         <v>0.761</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1896,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J9" t="n">
         <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
         <v>22.7</v>
@@ -2000,7 +2067,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y9" t="n">
         <v>3.6</v>
@@ -2009,13 +2076,13 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
         <v>97.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -2039,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2057,16 +2124,16 @@
         <v>18</v>
       </c>
       <c r="AQ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15</v>
       </c>
-      <c r="AR9" t="n">
-        <v>16</v>
-      </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>88.59999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2185,16 +2252,16 @@
         <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="AC10" t="n">
         <v>2.4</v>
@@ -2203,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
         <v>10</v>
       </c>
-      <c r="AF10" t="n">
-        <v>9</v>
-      </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2233,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2242,16 +2309,16 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2325,16 +2392,16 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L11" t="n">
         <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
@@ -2346,19 +2413,19 @@
         <v>0.73</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T11" t="n">
         <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
@@ -2367,16 +2434,16 @@
         <v>5.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
         <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>3</v>
@@ -2385,25 +2452,25 @@
         <v>8</v>
       </c>
       <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10</v>
       </c>
-      <c r="AF11" t="n">
-        <v>9</v>
-      </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2436,10 +2503,10 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -2486,70 +2553,70 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
         <v>24.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
         <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z12" t="n">
         <v>24.1</v>
@@ -2558,10 +2625,10 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.5</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -2570,7 +2637,7 @@
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2603,10 +2670,10 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2615,19 +2682,19 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,7 +2753,7 @@
         <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>79</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
@@ -2701,28 +2768,28 @@
         <v>0.339</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.79</v>
       </c>
       <c r="R13" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2734,13 +2801,13 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
         <v>-4.7</v>
@@ -2755,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2764,13 +2831,13 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
@@ -2782,7 +2849,7 @@
         <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2791,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
@@ -2818,10 +2885,10 @@
         <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,55 +2944,55 @@
         <v>7.4</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S14" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
@@ -2964,25 +3031,25 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2991,10 +3058,10 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.269</v>
+        <v>0.275</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
@@ -3059,55 +3126,55 @@
         <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
         <v>0.737</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
         <v>41.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3179,13 +3246,13 @@
         <v>3</v>
       </c>
       <c r="BA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB15" t="n">
         <v>8</v>
       </c>
-      <c r="BB15" t="n">
-        <v>9</v>
-      </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3325,19 +3392,19 @@
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>16</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.334</v>
       </c>
       <c r="O17" t="n">
         <v>16.5</v>
@@ -3435,22 +3502,22 @@
         <v>22.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>6.6</v>
@@ -3459,19 +3526,19 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
         <v>2</v>
@@ -3489,13 +3556,13 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3516,37 +3583,37 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.196</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,67 +3663,67 @@
         <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N18" t="n">
         <v>0.331</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
         <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB18" t="n">
         <v>93.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.8</v>
+        <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,10 +3768,10 @@
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3713,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3725,13 +3792,13 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,46 +3845,46 @@
         <v>33.9</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.7</v>
       </c>
       <c r="U19" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3826,16 +3893,16 @@
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
         <v>2</v>
@@ -3868,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.706</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
@@ -3981,16 +4048,16 @@
         <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
         <v>31</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -3999,40 +4066,40 @@
         <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4065,7 +4132,7 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
@@ -4083,7 +4150,7 @@
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4157,22 +4224,22 @@
         <v>0.334</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
         <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.723</v>
+        <v>0.718</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
         <v>18.3</v>
@@ -4184,19 +4251,19 @@
         <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y21" t="n">
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC21" t="n">
         <v>-5.9</v>
@@ -4214,13 +4281,13 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4229,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN21" t="n">
         <v>24</v>
@@ -4238,13 +4305,13 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,13 +4335,13 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.469</v>
       </c>
       <c r="L22" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M22" t="n">
         <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W22" t="n">
         <v>6.3</v>
@@ -4369,19 +4436,19 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
         <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,25 +4493,25 @@
         <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.434</v>
+        <v>0.423</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.315</v>
+        <v>0.311</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.704</v>
+        <v>0.705</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
@@ -4536,58 +4603,58 @@
         <v>29.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
         <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
         <v>5.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4611,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>36</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
         <v>84.3</v>
@@ -4694,58 +4761,58 @@
         <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M24" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P24" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R24" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S24" t="n">
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U24" t="n">
         <v>27.3</v>
       </c>
       <c r="V24" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>109.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
         <v>8</v>
@@ -4754,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>17</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>17</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
         <v>2</v>
@@ -4817,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.538</v>
+        <v>0.549</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P25" t="n">
         <v>23.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
         <v>29.8</v>
@@ -4903,13 +4970,13 @@
         <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V25" t="n">
         <v>13.3</v>
       </c>
       <c r="W25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.4</v>
@@ -4918,16 +4985,16 @@
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
         <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
@@ -4936,31 +5003,31 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -5002,10 +5069,10 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.451</v>
+        <v>0.46</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
         <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O26" t="n">
         <v>21.9</v>
@@ -5073,7 +5140,7 @@
         <v>27.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>10.3</v>
@@ -5082,43 +5149,43 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>18.8</v>
       </c>
       <c r="V26" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -5127,10 +5194,10 @@
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -5142,7 +5209,7 @@
         <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5172,10 +5239,10 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5184,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J27" t="n">
         <v>78.5</v>
@@ -5240,61 +5307,61 @@
         <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M27" t="n">
         <v>20.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.381</v>
+        <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P27" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R27" t="n">
         <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
         <v>11</v>
@@ -5324,16 +5391,16 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5351,7 +5418,7 @@
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="n">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5419,19 +5486,19 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M28" t="n">
         <v>12.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P28" t="n">
         <v>22.8</v>
@@ -5440,43 +5507,43 @@
         <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W28" t="n">
         <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.3</v>
+        <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5494,19 +5561,19 @@
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5518,19 +5585,19 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW28" t="n">
         <v>24</v>
@@ -5539,10 +5606,10 @@
         <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.549</v>
+        <v>0.54</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J29" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
@@ -5613,28 +5680,28 @@
         <v>0.421</v>
       </c>
       <c r="O29" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P29" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5646,28 +5713,28 @@
         <v>4.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
         <v>14</v>
       </c>
-      <c r="AF29" t="n">
-        <v>13</v>
-      </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>7</v>
@@ -5727,7 +5794,7 @@
         <v>7</v>
       </c>
       <c r="BA29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.642</v>
+        <v>0.635</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,25 +5847,25 @@
         <v>39.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="Q30" t="n">
         <v>0.752</v>
@@ -5819,7 +5886,7 @@
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
@@ -5828,16 +5895,16 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
@@ -5870,37 +5937,37 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR30" t="n">
         <v>17</v>
       </c>
-      <c r="AR30" t="n">
-        <v>15</v>
-      </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
         <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.481</v>
+        <v>0.471</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5962,52 +6029,52 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P31" t="n">
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R31" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S31" t="n">
         <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>19.6</v>
@@ -6016,7 +6083,7 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -6034,10 +6101,10 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6046,7 +6113,7 @@
         <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6055,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6064,13 +6131,13 @@
         <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-13-2007-08</t>
+          <t>2008-02-13</t>
         </is>
       </c>
     </row>
